--- a/output/urbandictionary/urbandictionary.xlsx
+++ b/output/urbandictionary/urbandictionary.xlsx
@@ -539,357 +539,357 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nov 4th</t>
+          <t>But Namjoon</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Slap Isabella’s in the face day</t>
+          <t>“But Namjoon” is a phrase that K-pop community uses when one of their faves do something problematic and they want to redirect the attention to Kim Namjoon, rapper and leader of BTS, and to justify their faves actions.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>You get to slap any Isabella around the world in the face on this day. Nov 4th mean slap Isabella in the face</t>
+          <t>Person A: your &lt;a href="/define.php?term=oppa"&gt;oppa&lt;/a&gt; should be called out, he said the N word. Person B: But Namjoon… you forget about him?  Or  Person A: He should apologize  Person B: You &lt;a href="/define.php?term=stan"&gt;stan&lt;/a&gt; Namjoon (this is another form of But Namjoon)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>old maid</t>
+          <t>Nov 4th</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>when a woman never gets married.</t>
+          <t>Slap Isabella’s in the face day</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>she will die an old maid</t>
+          <t>You get to slap any Isabella around the world in the face on this day. Nov 4th mean slap Isabella in the face</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>groper</t>
+          <t>old maid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1. someone who tries to sneak sexual touching while the other person is unaware.</t>
+          <t>when a woman never gets married.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Rich is such a groper, he got shit canned out of Cheetas when he grabbed Candy's teats.</t>
+          <t>she will die an old maid</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>harf</t>
+          <t>groper</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>to puke your guts out</t>
+          <t>1. someone who tries to sneak sexual touching while the other person is unaware.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>I drank so much that I harfed all night.</t>
+          <t>Rich is such a groper, he got shit canned out of Cheetas when he grabbed Candy's teats.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Thina</t>
+          <t>harf</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Thina is the most amazing girl you will ever meet in your life. Thinas are funny, smart, sarcastic and cute. She is probably one of the greatest friends you will have so don't lose them! Be grateful to meet a Thina, because they are amazing.</t>
+          <t>to puke your guts out</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>My best friend is Thina and she is amazing</t>
+          <t>I drank so much that I harfed all night.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>No Nut November Cheat Day</t>
+          <t>Thina</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Doesn't exist</t>
+          <t>Thina is the most amazing girl you will ever meet in your life. Thinas are funny, smart, sarcastic and cute. She is probably one of the greatest friends you will have so don't lose them! Be grateful to meet a Thina, because they are amazing.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Guy1: It's No Nut November Cheat Day!  Guy2: And where the fuck did you find this fake news?</t>
+          <t>My best friend is &lt;a href="/define.php?term=Thina"&gt;Thina&lt;/a&gt; and she is amazing</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>left and right</t>
+          <t>No Nut November Cheat Day</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A colorful term used in place of "everywhere", "all around", "all over" or "a plethora"; i.e. a lot.</t>
+          <t>Doesn't exist</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>I went fishing yesterday and nailled bass left and right.  Last night there were hotties in the club left and right.  I was in a highway pile up and was hit left and right.  We had a picnic on the beach and the seagulls were swarming us left and right.</t>
+          <t>Guy1: It's No Nut November Cheat Day!  Guy2: And where the fuck did you find this fake news?</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>boof assist</t>
+          <t>left and right</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>When you place drugs on the tip of your erect penis and insert it into your partners anus placing it correctly into the small god-gifted supposity pocket.</t>
+          <t>A colorful term used in place of "everywhere", "all around", "all over" or "a plethora"; i.e. a lot.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yeah the night started out good. Gary gave me a boof assist and I really started rolling balls.</t>
+          <t>I went fishing yesterday and nailled bass left and right.  Last night there were &lt;a href="/define.php?term=hotties"&gt;hotties&lt;/a&gt; in the club left and right.  I was in a highway pile up and was hit left and right.  We had a picnic on the beach and the seagulls were swarming us left and right.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DBE</t>
+          <t>boof assist</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>dumb bitch energy</t>
+          <t>When you place drugs on the tip of your erect penis and insert it into your partners anus placing it correctly into the small god-gifted supposity pocket.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>yall whats the number for 911? bitch is you stupid?? oh shit nah lol i just got DBE</t>
+          <t>Yeah the night started out good. Gary gave me a boof assist and I really started rolling balls.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dress left</t>
+          <t>DBE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Applies to men only. To dress left means to put one's penis down the left pantleg when dressing. You can dress left, dress right, or have a really small penis.</t>
+          <t>dumb bitch energy</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"I decided to dress left for the first time today, and it's a whole new world!"</t>
+          <t>yall whats the number for 911? bitch is you stupid?? oh shit nah lol i just got DBE</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>citrus scale</t>
+          <t>dress left</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>One of the ways to rate</t>
+          <t>Applies to men only. To dress left means to put one's penis down the left pantleg when dressing. You can dress left, dress right, or have a really small penis.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Pie1: hey, what is that story pie3 is writing on the citrus scale? Pie2: errr...lime Pie1: WHY NO LEMON Pie2: you're weird....</t>
+          <t>"I decided to dress left for the first time today, and it's a whole new world!"</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4th of November</t>
+          <t>citrus scale</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>The 4th of November is international send nudes day , you celebrate by sending</t>
+          <t>One of the ways to rate</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Jane : Why is everyone sending me nudes  Paul : It’s the 4th of November , International send nudes day</t>
+          <t>Pie1: hey, what is that story pie3 is writing on the citrus scale? Pie2: errr...lime Pie1: WHY NO LEMON Pie2: you're weird....</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>L.M.S.Y.D.T.Y.C.O.M.F</t>
+          <t>4th of November</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Let me suck your dick till you come on my face</t>
+          <t>The 4th of November is international send nudes day , you celebrate by sending</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Girl: L.M.S.Y.D.T.Y.C.O.M.F Guy:hell ya</t>
+          <t>Jane : Why is everyone sending me nudes  Paul : It’s the 4th of November , International send &lt;a href="/define.php?term=nudes"&gt;nudes&lt;/a&gt; day</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>beady beads</t>
+          <t>L.M.S.Y.D.T.Y.C.O.M.F</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>The tight knotted balls of hair attached to a person's scalp from lack of combing or brushing.</t>
+          <t>Let me suck your dick till you come on my face</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>All the kids at school were laughing at the beady beads on da back of little Ron Ron's heads. So he went to go get faded up.</t>
+          <t>Girl: L.M.S.Y.D.T.Y.C.O.M.F Guy:hell ya</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>a hoddie</t>
+          <t>beady beads</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>when you are going down on a fat chick and she lifts up her stomach and throws it over your head, giving the appearance of a hood on a sweater.</t>
+          <t>The tight knotted balls of hair attached to a person's scalp from lack of combing or brushing.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>dude, did you hear he went down on that fat chick?  Not only did he go down on her, He got "a hoddie"</t>
+          <t>All the kids at school were laughing at the beady beads on da back of little Ron Ron's heads. So he went to go get faded up.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>phwoar</t>
+          <t>a hoddie</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Acknowledgement that a person is extemely 'fit' (as in good-looking).</t>
+          <t>when you are going down on a fat chick and she lifts up her stomach and throws it over your head, giving the appearance of a hood on a sweater.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Phwoar! She'd get it.</t>
+          <t>dude, did you hear he went down on that fat chick?  Not only did he go down on her, He got "a hoddie"</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sink+or+Float</t>
+          <t>phwoar</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>A question asked to men asking whether or not their dick</t>
+          <t>Acknowledgement that a person is extemely 'fit' (as in good-looking).</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Girl: Does it sink or float? Guy: it /define.php?term=sinks"  );"&gt;sinks  Girl: Does it sink or float?  Guy: oh it definitely floats</t>
+          <t>Phwoar! She'd get it.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>November 7</t>
+          <t>Sink+or+Float</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>"No one Wants Your</t>
+          <t>A question asked to men asking whether or not their dick</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Hey babe it's November 7, why don't u take my hoodie?" "EW NO, I don't want that creepy /define.php?term=sweatshirt"  );"&gt;sweatshirt you wear every day. It smells like both Axe and ass. Why don't you put that shit in the laundry?"</t>
+          <t>Girl: Does it &lt;a href="/define.php?term=sink%20or%20float"  );"&gt;sink or float&lt;/a&gt;? Guy: it &lt;a href="/define.php?term=sinks"  );"&gt;sinks&lt;/a&gt;  Girl: Does it sink or float?  Guy: oh it &lt;a href="/define.php?term=definitely"  );"&gt;definitely&lt;/a&gt; floats</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Niggaboo</t>
+          <t>November 7</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Someone who</t>
+          <t>"No one Wants Your</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Guy: Aye wassup /define.php?term=ma%20Nigga"  );"&gt;ma Nigga was good.. Other Guy: Dude stop your acting like a Niggaboo.</t>
+          <t>Hey babe it's November 7, why don't u take my &lt;a href="/define.php?term=hoodie"  );"&gt;hoodie&lt;/a&gt;?" "EW NO, I don't want that creepy &lt;a href="/define.php?term=sweatshirt"  );"&gt;sweatshirt&lt;/a&gt; you wear every day. It smells like both Axe and ass. Why don't you put that shit in &lt;a href="/define.php?term=the%20laundry"  );"&gt;the laundry&lt;/a&gt;?"</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>June 24</t>
+          <t>Niggaboo</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>When a girl 👧 is born on this day you are</t>
+          <t>Someone who</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Hi  Hello 👋  When’s your birthday 🍰?? /define.php?term=June%2024th"  );"&gt;June 24th  Oh your no wonder why your sooo pretty  Thank you 🙏</t>
+          <t>Guy: Aye &lt;a href="/define.php?term=wassup"  );"&gt;wassup&lt;/a&gt; &lt;a href="/define.php?term=ma%20Nigga"  );"&gt;ma Nigga&lt;/a&gt; was good.. Other Guy: &lt;a href="/define.php?term=Dude%20stop"  );"&gt;Dude stop&lt;/a&gt; your acting like a Niggaboo.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>hotties</t>
+          <t>June 24</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Multiple /define.php?term=hot"  );"&gt;hot woman. Usually grouped together.</t>
+          <t>When a girl 👧 is born on this day you are</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>At a party:  /define.php?term=Look"  );"&gt;Look, hotties 3 o'clock.</t>
+          <t>Hi  Hello 👋  When’s your &lt;a href="/define.php?term=birthday"  );"&gt;birthday&lt;/a&gt; 🍰?? &lt;a href="/define.php?term=June%2024th"  );"&gt;June 24th&lt;/a&gt;  Oh your no wonder why your sooo pretty  &lt;a href="/define.php?term=Thank%20you"  );"&gt;Thank you&lt;/a&gt; 🙏</t>
         </is>
       </c>
     </row>
